--- a/biology/Zoologie/Héliothermie/Héliothermie.xlsx
+++ b/biology/Zoologie/Héliothermie/Héliothermie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9liothermie</t>
+          <t>Héliothermie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’héliothermie (du grec ἥλιος hếlios, « soleil », et θερμός thermós, « chaleur ») est un mode de thermorégulation par exploitation de la chaleur qui consiste à augmenter sa température corporelle en s'exposant au Soleil. Ce mode qui récupère la chaleur du rayonnement solaire s'oppose à la thigmothermie, réchauffement par conduction par contact avec un substrat chaud. 
-Il existe un grand nombre de comportements de thermorégulation, depuis l'organisme thermoconformeur[1] à l'organisme thermorégulateur « parfait » capable de maintenir sa température cible indépendamment des conditions environnementales. Cependant, la thermorégulation est un processus complexe, si bien que le majorité des invertébrés ectothermes terrestres sont des thermorégulateurs imparfaits se distribuant le long de ce continuum. Les animaux poïkilothermes terrestres peuvent s'adapter sans besoin d'évoluer grâce à leur plasticité phénotypique, en ajustant leur température corporelle par l'adoption d'une stratégie héliothermique (espèces qui ont accès au rayonnement solaire) et thigmothermique (espèces qui ont un accès limité : organismes nocturnes, organismes diurnes vivant dans des habitats forestiers)[2].
+Il existe un grand nombre de comportements de thermorégulation, depuis l'organisme thermoconformeur à l'organisme thermorégulateur « parfait » capable de maintenir sa température cible indépendamment des conditions environnementales. Cependant, la thermorégulation est un processus complexe, si bien que le majorité des invertébrés ectothermes terrestres sont des thermorégulateurs imparfaits se distribuant le long de ce continuum. Les animaux poïkilothermes terrestres peuvent s'adapter sans besoin d'évoluer grâce à leur plasticité phénotypique, en ajustant leur température corporelle par l'adoption d'une stratégie héliothermique (espèces qui ont accès au rayonnement solaire) et thigmothermique (espèces qui ont un accès limité : organismes nocturnes, organismes diurnes vivant dans des habitats forestiers).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9liothermie</t>
+          <t>Héliothermie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Stratégies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette capacité est particulièrement utilisée par les animaux poïkilothermes terrestres comme les reptiles et les amphibiens, qualifiés à tort d'animaux « à sang froid », et qui initient leur journée par une période de régulation de durée variable[3]. Cette stratégie de thermorégulation est également observée chez les insectes. Leur thermorégulation comportementale (en) les amène à rechercher les meilleures zones d'exposition au soleil (papillons[4], fourmis qui sélectionnent des itinéraires  ensoleillés, libellules et mouches à toison qui choisissent des perchoirs exposés au soleil)[5],[6].
-L'héliothermie est également mise à profit par les homéothermes tels que les oiseaux. Certains auteurs distinguent chez ces vertébrés le fait de se chauffer au soleil (sun basking) qui a une fonction thermorégulatrice, et s'exposer au soleil (sun exposure) qui a une autre fonction[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette capacité est particulièrement utilisée par les animaux poïkilothermes terrestres comme les reptiles et les amphibiens, qualifiés à tort d'animaux « à sang froid », et qui initient leur journée par une période de régulation de durée variable. Cette stratégie de thermorégulation est également observée chez les insectes. Leur thermorégulation comportementale (en) les amène à rechercher les meilleures zones d'exposition au soleil (papillons, fourmis qui sélectionnent des itinéraires  ensoleillés, libellules et mouches à toison qui choisissent des perchoirs exposés au soleil),.
+L'héliothermie est également mise à profit par les homéothermes tels que les oiseaux. Certains auteurs distinguent chez ces vertébrés le fait de se chauffer au soleil (sun basking) qui a une fonction thermorégulatrice, et s'exposer au soleil (sun exposure) qui a une autre fonction.
 </t>
         </is>
       </c>
